--- a/src/JCSGYK/AdminBundle/Resources/public/reports/homehelp_stats.xlsx
+++ b/src/JCSGYK/AdminBundle/Resources/public/reports/homehelp_stats.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="2380" yWindow="1340" windowWidth="46380" windowHeight="26420"/>
@@ -132,27 +132,12 @@
     <t>Látogatások száma</t>
   </si>
   <si>
-    <t>[inv.visits;ope=tbs:num]</t>
-  </si>
-  <si>
     <t>TM gondozottak óra / fő</t>
   </si>
   <si>
-    <t>[inv.disc;ope=tbs:num]</t>
-  </si>
-  <si>
-    <t>[inv.disccli;ope=tbs:num]</t>
-  </si>
-  <si>
     <t>Fizetős gondozottak óra / fő</t>
   </si>
   <si>
-    <t>[inv.pay;ope=tbs:num]</t>
-  </si>
-  <si>
-    <t>[inv.paycli;ope=tbs:num]</t>
-  </si>
-  <si>
     <t>Átlag gondozási órák 0.5 fő</t>
   </si>
   <si>
@@ -175,6 +160,21 @@
   </si>
   <si>
     <t>[cnum.inpatient;ope=tbs:num]</t>
+  </si>
+  <si>
+    <t>[inv.disc; ope=tbs:num]</t>
+  </si>
+  <si>
+    <t>[inv.pay; ope=tbs:num]</t>
+  </si>
+  <si>
+    <t>[inv.disccli; ope=tbs:num]</t>
+  </si>
+  <si>
+    <t>[inv.visits; ope=tbs:num]</t>
+  </si>
+  <si>
+    <t>[inv.paycli; ope=tbs:num]</t>
   </si>
 </sst>
 </file>
@@ -468,23 +468,23 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="177">
@@ -1077,18 +1077,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
@@ -1111,127 +1111,127 @@
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:18" ht="15" customHeight="1">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="8"/>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
       <c r="I3" s="7" t="s">
         <v>35</v>
       </c>
       <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:18" ht="15" customHeight="1">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
       <c r="D4" s="7" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="8"/>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
       <c r="I4" s="7" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15" customHeight="1">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
       <c r="D5" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="8"/>
-      <c r="F5" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
+      <c r="F5" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
       <c r="I5" s="7" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
       <c r="D6" s="7" t="s">
         <v>33</v>
       </c>
       <c r="E6" s="8"/>
-      <c r="F6" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
+      <c r="F6" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
       <c r="I6" s="7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15" customHeight="1">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
       <c r="D7" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="8"/>
-      <c r="F7" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
+      <c r="F7" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
       <c r="I7" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" s="14"/>
+        <v>40</v>
+      </c>
+      <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:18" ht="15" customHeight="1">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
       <c r="D8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="8"/>
-      <c r="F8" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
+      <c r="F8" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
       <c r="I8" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="J8" s="14"/>
+        <v>44</v>
+      </c>
+      <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:18" ht="15" customHeight="1">
       <c r="A9" s="2"/>
@@ -1239,42 +1239,42 @@
       <c r="C9" s="8"/>
       <c r="D9" s="9"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
+      <c r="F9" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
       <c r="I9" s="7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:18" ht="15" customHeight="1">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
       <c r="D10" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="8"/>
-      <c r="F10" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
+      <c r="F10" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
       <c r="I10" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:18" ht="15" customHeight="1">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
       <c r="D11" s="7" t="s">
         <v>30</v>
       </c>
@@ -1286,11 +1286,11 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
       <c r="D12" s="7" t="s">
         <v>31</v>
       </c>
@@ -1314,10 +1314,10 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:18" ht="30" customHeight="1">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="10"/>
@@ -1330,7 +1330,7 @@
       <c r="J14" s="10"/>
     </row>
     <row r="15" spans="1:18" ht="21" customHeight="1">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="12" t="s">
@@ -1346,7 +1346,7 @@
       <c r="J15" s="11"/>
     </row>
     <row r="16" spans="1:18" ht="21" customHeight="1">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="12" t="s">
@@ -1362,10 +1362,10 @@
       <c r="J16" s="11"/>
     </row>
     <row r="17" spans="1:10" ht="21" customHeight="1">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="10"/>
@@ -1378,7 +1378,7 @@
       <c r="J17" s="10"/>
     </row>
     <row r="18" spans="1:10" ht="21" customHeight="1">
-      <c r="A18" s="17"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="12" t="s">
         <v>21</v>
       </c>
@@ -1392,10 +1392,10 @@
       <c r="J18" s="11"/>
     </row>
     <row r="19" spans="1:10" ht="21" customHeight="1">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="15" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="10"/>
@@ -1408,7 +1408,7 @@
       <c r="J19" s="10"/>
     </row>
     <row r="20" spans="1:10" ht="21" customHeight="1">
-      <c r="A20" s="17"/>
+      <c r="A20" s="16"/>
       <c r="B20" s="12" t="s">
         <v>23</v>
       </c>
@@ -1422,10 +1422,10 @@
       <c r="J20" s="11"/>
     </row>
     <row r="21" spans="1:10" ht="21" customHeight="1">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="15" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="10"/>
@@ -1438,7 +1438,7 @@
       <c r="J21" s="10"/>
     </row>
     <row r="22" spans="1:10" ht="21" customHeight="1">
-      <c r="A22" s="17"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="12" t="s">
         <v>25</v>
       </c>
@@ -1561,11 +1561,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A11:C11"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="F5:H5"/>
@@ -1582,6 +1577,11 @@
     <mergeCell ref="F8:H8"/>
     <mergeCell ref="F9:H9"/>
     <mergeCell ref="F10:H10"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A11:C11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.8" right="0.2" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/JCSGYK/AdminBundle/Resources/public/reports/homehelp_stats.xlsx
+++ b/src/JCSGYK/AdminBundle/Resources/public/reports/homehelp_stats.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="2380" yWindow="1340" windowWidth="46380" windowHeight="26420"/>
@@ -105,12 +105,6 @@
     <t>[inv.sum]</t>
   </si>
   <si>
-    <t>Étkezők száma NŐ</t>
-  </si>
-  <si>
-    <t>Étkezők száma FÉRFI</t>
-  </si>
-  <si>
     <t>[cnum.woman;ope=tbs:num]</t>
   </si>
   <si>
@@ -175,6 +169,12 @@
   </si>
   <si>
     <t>[inv.paycli; ope=tbs:num]</t>
+  </si>
+  <si>
+    <t>Gondozottak száma NŐ</t>
+  </si>
+  <si>
+    <t>Gondozottak száma FÉRFI</t>
   </si>
 </sst>
 </file>
@@ -477,14 +477,14 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="177">
@@ -1077,18 +1077,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G3" s="17"/>
       <c r="H3" s="17"/>
       <c r="I3" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J3" s="8"/>
     </row>
@@ -1141,12 +1141,12 @@
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G4" s="17"/>
       <c r="H4" s="17"/>
       <c r="I4" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15" customHeight="1">
@@ -1160,37 +1160,37 @@
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G5" s="17"/>
       <c r="H5" s="17"/>
       <c r="I5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1">
       <c r="A6" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
       <c r="D6" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
       <c r="I6" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15" customHeight="1">
@@ -1204,12 +1204,12 @@
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
       <c r="I7" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J7" s="13"/>
     </row>
@@ -1224,12 +1224,12 @@
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
       <c r="I8" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J8" s="13"/>
     </row>
@@ -1240,12 +1240,12 @@
       <c r="D9" s="9"/>
       <c r="E9" s="8"/>
       <c r="F9" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
       <c r="I9" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J9" s="2"/>
     </row>
@@ -1260,23 +1260,23 @@
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
       <c r="I10" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:18" ht="15" customHeight="1">
       <c r="A11" s="17" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
       <c r="D11" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
@@ -1287,12 +1287,12 @@
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1">
       <c r="A12" s="17" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
       <c r="D12" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
@@ -1362,7 +1362,7 @@
       <c r="J16" s="11"/>
     </row>
     <row r="17" spans="1:10" ht="21" customHeight="1">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="18" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="15" t="s">
@@ -1378,7 +1378,7 @@
       <c r="J17" s="10"/>
     </row>
     <row r="18" spans="1:10" ht="21" customHeight="1">
-      <c r="A18" s="16"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="12" t="s">
         <v>21</v>
       </c>
@@ -1392,7 +1392,7 @@
       <c r="J18" s="11"/>
     </row>
     <row r="19" spans="1:10" ht="21" customHeight="1">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="15" t="s">
@@ -1408,7 +1408,7 @@
       <c r="J19" s="10"/>
     </row>
     <row r="20" spans="1:10" ht="21" customHeight="1">
-      <c r="A20" s="16"/>
+      <c r="A20" s="18"/>
       <c r="B20" s="12" t="s">
         <v>23</v>
       </c>
@@ -1422,7 +1422,7 @@
       <c r="J20" s="11"/>
     </row>
     <row r="21" spans="1:10" ht="21" customHeight="1">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B21" s="15" t="s">
@@ -1438,7 +1438,7 @@
       <c r="J21" s="10"/>
     </row>
     <row r="22" spans="1:10" ht="21" customHeight="1">
-      <c r="A22" s="16"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="12" t="s">
         <v>25</v>
       </c>
@@ -1561,6 +1561,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A11:C11"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="F5:H5"/>
@@ -1577,11 +1582,6 @@
     <mergeCell ref="F8:H8"/>
     <mergeCell ref="F9:H9"/>
     <mergeCell ref="F10:H10"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A11:C11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.8" right="0.2" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/JCSGYK/AdminBundle/Resources/public/reports/homehelp_stats.xlsx
+++ b/src/JCSGYK/AdminBundle/Resources/public/reports/homehelp_stats.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>[ca.cim][ca.klub]</t>
   </si>
@@ -102,15 +102,6 @@
     <t>Térítési díj bevétel összesen</t>
   </si>
   <si>
-    <t>[inv.sum]</t>
-  </si>
-  <si>
-    <t>[cnum.woman;ope=tbs:num]</t>
-  </si>
-  <si>
-    <t>[cnum.man;ope=tbs:num]</t>
-  </si>
-  <si>
     <t>Aktív ellátottak száma</t>
   </si>
   <si>
@@ -120,9 +111,6 @@
     <t>Gondozási órák</t>
   </si>
   <si>
-    <t>[inv.hours;ope=tbs:num]</t>
-  </si>
-  <si>
     <t>Látogatások száma</t>
   </si>
   <si>
@@ -135,46 +123,64 @@
     <t>Átlag gondozási órák 0.5 fő</t>
   </si>
   <si>
-    <t>[inv.avg05;ope=tbs:num]</t>
-  </si>
-  <si>
     <t>Átlag gondozási órák 1-2 fő</t>
   </si>
   <si>
     <t>Átlag gondozási órák 3-4 fő</t>
   </si>
   <si>
-    <t>[inv.avg34;ope=tbs:num]</t>
-  </si>
-  <si>
-    <t>[inv.avg12;ope=tbs:num]</t>
-  </si>
-  <si>
     <t>Fekvőbetegek száma</t>
   </si>
   <si>
-    <t>[cnum.inpatient;ope=tbs:num]</t>
-  </si>
-  <si>
-    <t>[inv.disc; ope=tbs:num]</t>
-  </si>
-  <si>
-    <t>[inv.pay; ope=tbs:num]</t>
-  </si>
-  <si>
-    <t>[inv.disccli; ope=tbs:num]</t>
-  </si>
-  <si>
-    <t>[inv.visits; ope=tbs:num]</t>
-  </si>
-  <si>
-    <t>[inv.paycli; ope=tbs:num]</t>
-  </si>
-  <si>
     <t>Gondozottak száma NŐ</t>
   </si>
   <si>
     <t>Gondozottak száma FÉRFI</t>
+  </si>
+  <si>
+    <t>Újra nyitott</t>
+  </si>
+  <si>
+    <t>[cnum.reopened;ope=tbs:num]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [inv.sum]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [cnum.woman;ope=tbs:num]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [cnum.man;ope=tbs:num]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [inv.hours;ope=tbs:num]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [inv.visits; ope=tbs:num]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [inv.disc; ope=tbs:num]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [inv.pay; ope=tbs:num]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [inv.avg05;ope=tbs:num]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [inv.avg12;ope=tbs:num]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [inv.avg34;ope=tbs:num]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [cnum.inpatient;ope=tbs:num]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [inv.disccli; ope=tbs:num]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [inv.paycli; ope=tbs:num]</t>
   </si>
 </sst>
 </file>
@@ -221,7 +227,7 @@
       <name val="Arial CE"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -234,8 +240,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -258,8 +270,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="177">
+  <cellStyleXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -437,8 +499,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -477,17 +547,38 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="177">
+  <cellStyles count="185">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -576,6 +667,10 @@
     <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -664,6 +759,10 @@
     <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1061,7 +1160,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R31"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1077,18 +1176,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
@@ -1111,188 +1210,183 @@
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:18" ht="15" customHeight="1">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
       <c r="D3" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="8"/>
-      <c r="F3" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
+      <c r="F3" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
       <c r="I3" s="7" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:18" ht="15" customHeight="1">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
       <c r="D4" s="7" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="8"/>
-      <c r="F4" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
+      <c r="F4" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
       <c r="I4" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15" customHeight="1">
-      <c r="A5" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="7" t="s">
-        <v>6</v>
+      <c r="A5" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
+        <v>31</v>
+      </c>
+      <c r="G5" s="18"/>
+      <c r="H5" s="19"/>
       <c r="I5" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1">
-      <c r="A6" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
+      <c r="A6" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
       <c r="D6" s="7" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
+        <v>32</v>
+      </c>
+      <c r="G6" s="18"/>
+      <c r="H6" s="19"/>
       <c r="I6" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15" customHeight="1">
-      <c r="A7" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
+      <c r="A7" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="7" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
+        <v>33</v>
+      </c>
+      <c r="G7" s="18"/>
+      <c r="H7" s="19"/>
       <c r="I7" s="7" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:18" ht="15" customHeight="1">
-      <c r="A8" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
+      <c r="A8" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
+        <v>34</v>
+      </c>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
       <c r="I8" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:18" ht="15" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
+      <c r="A9" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="E9" s="8"/>
       <c r="F9" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
+        <v>35</v>
+      </c>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
       <c r="I9" s="7" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:18" ht="15" customHeight="1">
-      <c r="A10" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
+      <c r="F10" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
       <c r="I10" s="7" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:18" ht="15" customHeight="1">
       <c r="A11" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
+        <v>26</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
       <c r="D11" s="7" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1">
-      <c r="A12" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
+      <c r="A12" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
       <c r="D12" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
@@ -1302,10 +1396,14 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:18" ht="15" customHeight="1">
-      <c r="A13" s="2"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
+      <c r="A13" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
@@ -1313,44 +1411,40 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:18" ht="30" customHeight="1">
-      <c r="A14" s="14" t="s">
+    <row r="14" spans="1:18" ht="15" customHeight="1">
+      <c r="A14" s="2"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:18" ht="30" customHeight="1">
+      <c r="A15" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B15" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-    </row>
-    <row r="15" spans="1:18" ht="21" customHeight="1">
-      <c r="A15" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
     </row>
     <row r="16" spans="1:18" ht="21" customHeight="1">
       <c r="A16" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
@@ -1362,106 +1456,110 @@
       <c r="J16" s="11"/>
     </row>
     <row r="17" spans="1:10" ht="21" customHeight="1">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" spans="1:10" ht="21" customHeight="1">
+      <c r="A18" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B18" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-    </row>
-    <row r="18" spans="1:10" ht="21" customHeight="1">
-      <c r="A18" s="18"/>
-      <c r="B18" s="12" t="s">
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+    </row>
+    <row r="19" spans="1:10" ht="21" customHeight="1">
+      <c r="A19" s="25"/>
+      <c r="B19" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-    </row>
-    <row r="19" spans="1:10" ht="21" customHeight="1">
-      <c r="A19" s="18" t="s">
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+    </row>
+    <row r="20" spans="1:10" ht="21" customHeight="1">
+      <c r="A20" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B20" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-    </row>
-    <row r="20" spans="1:10" ht="21" customHeight="1">
-      <c r="A20" s="18"/>
-      <c r="B20" s="12" t="s">
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+    </row>
+    <row r="21" spans="1:10" ht="21" customHeight="1">
+      <c r="A21" s="25"/>
+      <c r="B21" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-    </row>
-    <row r="21" spans="1:10" ht="21" customHeight="1">
-      <c r="A21" s="18" t="s">
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+    </row>
+    <row r="22" spans="1:10" ht="21" customHeight="1">
+      <c r="A22" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B22" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-    </row>
-    <row r="22" spans="1:10" ht="21" customHeight="1">
-      <c r="A22" s="18"/>
-      <c r="B22" s="12" t="s">
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+    </row>
+    <row r="23" spans="1:10" ht="21" customHeight="1">
+      <c r="A23" s="25"/>
+      <c r="B23" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-    </row>
-    <row r="23" spans="1:10" ht="15" customHeight="1">
-      <c r="A23" s="2"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1">
       <c r="A24" s="2"/>
@@ -1559,29 +1657,42 @@
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
     </row>
+    <row r="32" spans="1:10" ht="15" customHeight="1">
+      <c r="A32" s="2"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
+  <mergeCells count="22">
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A13:C13"/>
     <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="F6:H6"/>
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="F8:H8"/>
     <mergeCell ref="F9:H9"/>
     <mergeCell ref="F10:H10"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A5:C5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.8" right="0.2" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/JCSGYK/AdminBundle/Resources/public/reports/homehelp_stats.xlsx
+++ b/src/JCSGYK/AdminBundle/Resources/public/reports/homehelp_stats.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2380" yWindow="1340" windowWidth="46380" windowHeight="26420"/>
+    <workbookView xWindow="12800" yWindow="1360" windowWidth="35960" windowHeight="26400"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -27,33 +27,18 @@
     <t>Létszám hónap 1-én</t>
   </si>
   <si>
-    <t>[cnum.start;ope=tbs:num]</t>
-  </si>
-  <si>
     <t>Új felvétel</t>
   </si>
   <si>
-    <t>[cnum.new;ope=tbs:num]</t>
-  </si>
-  <si>
     <t>Teljes havi létszám</t>
   </si>
   <si>
-    <t>[cnum.all;ope=tbs:num]</t>
-  </si>
-  <si>
     <t>Megszűntek</t>
   </si>
   <si>
-    <t>[cnum.archived;ope=tbs:num]</t>
-  </si>
-  <si>
     <t>Létszám hónap végén</t>
   </si>
   <si>
-    <t>[cnum.end;ope=tbs:num]</t>
-  </si>
-  <si>
     <t>Kor szerinti megoszlás</t>
   </si>
   <si>
@@ -72,42 +57,12 @@
     <t>Lakásban tartózkodás jogcíme</t>
   </si>
   <si>
-    <t>[age_headers.val;block=tbs:cell]</t>
-  </si>
-  <si>
-    <t>[age_2.val;block=tbs:cell;ope=tbs:num]</t>
-  </si>
-  <si>
-    <t>[age_1.val;block=tbs:cell;ope=tbs:num]</t>
-  </si>
-  <si>
-    <t>[comfort_headers.val;block=tbs:cell]</t>
-  </si>
-  <si>
-    <t>[comfort.val;block=tbs:cell;ope=tbs:num]</t>
-  </si>
-  <si>
-    <t>[income_headers.val;block=tbs:cell]</t>
-  </si>
-  <si>
-    <t>[income.val;block=tbs:cell;ope=tbs:num]</t>
-  </si>
-  <si>
-    <t>[ownership_headers.val;block=tbs:cell]</t>
-  </si>
-  <si>
-    <t>[ownership.val;block=tbs:cell;ope=tbs:num]</t>
-  </si>
-  <si>
     <t>Térítési díj bevétel összesen</t>
   </si>
   <si>
     <t>Aktív ellátottak száma</t>
   </si>
   <si>
-    <t>[cnum.active;ope=tbs:num]</t>
-  </si>
-  <si>
     <t>Gondozási órák</t>
   </si>
   <si>
@@ -141,9 +96,6 @@
     <t>Újra nyitott</t>
   </si>
   <si>
-    <t>[cnum.reopened;ope=tbs:num]</t>
-  </si>
-  <si>
     <t xml:space="preserve"> [inv.sum]</t>
   </si>
   <si>
@@ -181,6 +133,54 @@
   </si>
   <si>
     <t xml:space="preserve"> [inv.paycli; ope=tbs:num]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [cnum.start;ope=tbs:num]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [cnum.new;ope=tbs:num]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [cnum.reopened;ope=tbs:num]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [cnum.all;ope=tbs:num]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [cnum.active;ope=tbs:num]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [cnum.archived;ope=tbs:num]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [cnum.end;ope=tbs:num]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [age_headers.val;block=tbs:cell]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [age_2.val;block=tbs:cell;ope=tbs:num]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [age_1.val;block=tbs:cell;ope=tbs:num]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [comfort_headers.val;block=tbs:cell]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [comfort.val;block=tbs:cell;ope=tbs:num]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [income_headers.val;block=tbs:cell]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [income.val;block=tbs:cell;ope=tbs:num]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ownership_headers.val;block=tbs:cell]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ownership.val;block=tbs:cell;ope=tbs:num]</t>
   </si>
 </sst>
 </file>
@@ -550,6 +550,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -562,9 +568,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -573,9 +576,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="185">
@@ -1176,18 +1176,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
@@ -1210,145 +1210,145 @@
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:18" ht="15" customHeight="1">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
       <c r="D3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:18" ht="15" customHeight="1">
+      <c r="A4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="21" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="1:18" ht="15" customHeight="1">
-      <c r="A4" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="7" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="5" spans="1:18" ht="15" customHeight="1">
-      <c r="A5" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="24"/>
+      <c r="A5" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="24"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="16" t="s">
         <v>40</v>
       </c>
       <c r="E5" s="8"/>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15" customHeight="1">
+      <c r="A6" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="20"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="15" customHeight="1">
-      <c r="A6" s="21" t="s">
+      <c r="J6" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15" customHeight="1">
+      <c r="A7" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="20"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="13"/>
+    </row>
+    <row r="8" spans="1:18" ht="15" customHeight="1">
+      <c r="A8" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="20"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="13"/>
+    </row>
+    <row r="9" spans="1:18" ht="15" customHeight="1">
+      <c r="A9" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="15" customHeight="1">
-      <c r="A7" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="J7" s="13"/>
-    </row>
-    <row r="8" spans="1:18" ht="15" customHeight="1">
-      <c r="A8" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="17" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="20"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="J8" s="13"/>
-    </row>
-    <row r="9" spans="1:18" ht="15" customHeight="1">
-      <c r="A9" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="J9" s="2"/>
     </row>
@@ -1358,35 +1358,35 @@
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
+      <c r="F10" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
       <c r="I10" s="7" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:18" ht="15" customHeight="1">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:18" ht="15" customHeight="1">
+      <c r="A12" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:18" ht="15" customHeight="1">
-      <c r="A12" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
@@ -1396,13 +1396,13 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:18" ht="15" customHeight="1">
-      <c r="A13" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
+      <c r="A13" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
       <c r="D13" s="7" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
@@ -1425,10 +1425,10 @@
     </row>
     <row r="15" spans="1:18" ht="30" customHeight="1">
       <c r="A15" s="14" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -1441,10 +1441,10 @@
     </row>
     <row r="16" spans="1:18" ht="21" customHeight="1">
       <c r="A16" s="14" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
@@ -1457,10 +1457,10 @@
     </row>
     <row r="17" spans="1:10" ht="21" customHeight="1">
       <c r="A17" s="14" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -1472,11 +1472,11 @@
       <c r="J17" s="11"/>
     </row>
     <row r="18" spans="1:10" ht="21" customHeight="1">
-      <c r="A18" s="25" t="s">
-        <v>14</v>
+      <c r="A18" s="17" t="s">
+        <v>9</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -1488,9 +1488,9 @@
       <c r="J18" s="10"/>
     </row>
     <row r="19" spans="1:10" ht="21" customHeight="1">
-      <c r="A19" s="25"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="12" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -1502,11 +1502,11 @@
       <c r="J19" s="11"/>
     </row>
     <row r="20" spans="1:10" ht="21" customHeight="1">
-      <c r="A20" s="25" t="s">
-        <v>15</v>
+      <c r="A20" s="17" t="s">
+        <v>10</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -1518,9 +1518,9 @@
       <c r="J20" s="10"/>
     </row>
     <row r="21" spans="1:10" ht="21" customHeight="1">
-      <c r="A21" s="25"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="12" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
@@ -1532,11 +1532,11 @@
       <c r="J21" s="11"/>
     </row>
     <row r="22" spans="1:10" ht="21" customHeight="1">
-      <c r="A22" s="25" t="s">
-        <v>16</v>
+      <c r="A22" s="17" t="s">
+        <v>11</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -1548,9 +1548,9 @@
       <c r="J22" s="10"/>
     </row>
     <row r="23" spans="1:10" ht="21" customHeight="1">
-      <c r="A23" s="25"/>
+      <c r="A23" s="17"/>
       <c r="B23" s="12" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
@@ -1671,6 +1671,15 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A5:C5"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A13:C13"/>
@@ -1684,15 +1693,6 @@
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A5:C5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.8" right="0.2" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/JCSGYK/AdminBundle/Resources/public/reports/homehelp_stats.xlsx
+++ b/src/JCSGYK/AdminBundle/Resources/public/reports/homehelp_stats.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="1360" windowWidth="35960" windowHeight="26400"/>
+    <workbookView xWindow="16240" yWindow="700" windowWidth="30280" windowHeight="26860"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -57,6 +57,33 @@
     <t>Lakásban tartózkodás jogcíme</t>
   </si>
   <si>
+    <t>[age_headers.val;block=tbs:cell]</t>
+  </si>
+  <si>
+    <t>[age_2.val;block=tbs:cell;ope=tbs:num]</t>
+  </si>
+  <si>
+    <t>[age_1.val;block=tbs:cell;ope=tbs:num]</t>
+  </si>
+  <si>
+    <t>[comfort_headers.val;block=tbs:cell]</t>
+  </si>
+  <si>
+    <t>[comfort.val;block=tbs:cell;ope=tbs:num]</t>
+  </si>
+  <si>
+    <t>[income_headers.val;block=tbs:cell]</t>
+  </si>
+  <si>
+    <t>[income.val;block=tbs:cell;ope=tbs:num]</t>
+  </si>
+  <si>
+    <t>[ownership_headers.val;block=tbs:cell]</t>
+  </si>
+  <si>
+    <t>[ownership.val;block=tbs:cell;ope=tbs:num]</t>
+  </si>
+  <si>
     <t>Térítési díj bevétel összesen</t>
   </si>
   <si>
@@ -78,15 +105,36 @@
     <t>Átlag gondozási órák 0.5 fő</t>
   </si>
   <si>
+    <t>[inv.avg05;ope=tbs:num]</t>
+  </si>
+  <si>
     <t>Átlag gondozási órák 1-2 fő</t>
   </si>
   <si>
     <t>Átlag gondozási órák 3-4 fő</t>
   </si>
   <si>
+    <t>[inv.avg34;ope=tbs:num]</t>
+  </si>
+  <si>
+    <t>[inv.avg12;ope=tbs:num]</t>
+  </si>
+  <si>
     <t>Fekvőbetegek száma</t>
   </si>
   <si>
+    <t>[cnum.inpatient;ope=tbs:num]</t>
+  </si>
+  <si>
+    <t>[inv.disc; ope=tbs:num]</t>
+  </si>
+  <si>
+    <t>[inv.pay; ope=tbs:num]</t>
+  </si>
+  <si>
+    <t>[inv.disccli; ope=tbs:num]</t>
+  </si>
+  <si>
     <t>Gondozottak száma NŐ</t>
   </si>
   <si>
@@ -96,6 +144,27 @@
     <t>Újra nyitott</t>
   </si>
   <si>
+    <t xml:space="preserve"> [cnum.start;ope=tbs:num]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [cnum.new;ope=tbs:num]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [cnum.all;ope=tbs:num]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [cnum.reopened;ope=tbs:num]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [cnum.active;ope=tbs:num]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [cnum.archived;ope=tbs:num]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [cnum.end;ope=tbs:num]</t>
+  </si>
+  <si>
     <t xml:space="preserve"> [inv.sum]</t>
   </si>
   <si>
@@ -111,76 +180,7 @@
     <t xml:space="preserve"> [inv.visits; ope=tbs:num]</t>
   </si>
   <si>
-    <t xml:space="preserve"> [inv.disc; ope=tbs:num]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [inv.pay; ope=tbs:num]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [inv.avg05;ope=tbs:num]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [inv.avg12;ope=tbs:num]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [inv.avg34;ope=tbs:num]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [cnum.inpatient;ope=tbs:num]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [inv.disccli; ope=tbs:num]</t>
-  </si>
-  <si>
     <t xml:space="preserve"> [inv.paycli; ope=tbs:num]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [cnum.start;ope=tbs:num]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [cnum.new;ope=tbs:num]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [cnum.reopened;ope=tbs:num]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [cnum.all;ope=tbs:num]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [cnum.active;ope=tbs:num]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [cnum.archived;ope=tbs:num]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [cnum.end;ope=tbs:num]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [age_headers.val;block=tbs:cell]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [age_2.val;block=tbs:cell;ope=tbs:num]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [age_1.val;block=tbs:cell;ope=tbs:num]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [comfort_headers.val;block=tbs:cell]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [comfort.val;block=tbs:cell;ope=tbs:num]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [income_headers.val;block=tbs:cell]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [income.val;block=tbs:cell;ope=tbs:num]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [ownership_headers.val;block=tbs:cell]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [ownership.val;block=tbs:cell;ope=tbs:num]</t>
   </si>
 </sst>
 </file>
@@ -227,7 +227,7 @@
       <name val="Arial CE"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -240,14 +240,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -271,19 +265,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -295,10 +276,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -321,7 +302,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="185">
+  <cellStyleXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -501,14 +482,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -547,38 +522,29 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="185">
+  <cellStyles count="179">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -668,9 +634,6 @@
     <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -760,9 +723,6 @@
     <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1176,18 +1136,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
@@ -1210,183 +1170,188 @@
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:18" ht="15" customHeight="1">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E3" s="8"/>
-      <c r="F3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
+      <c r="F3" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
       <c r="I3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:18" ht="15" customHeight="1">
+      <c r="A4" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15" customHeight="1">
+      <c r="A5" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15" customHeight="1">
+      <c r="A6" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15" customHeight="1">
+      <c r="A7" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="1:18" ht="15" customHeight="1">
-      <c r="A4" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="7" t="s">
+      <c r="J7" s="13"/>
+    </row>
+    <row r="8" spans="1:18" ht="15" customHeight="1">
+      <c r="A8" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="17" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" ht="15" customHeight="1">
-      <c r="A5" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="7" t="s">
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="13"/>
+    </row>
+    <row r="9" spans="1:18" ht="15" customHeight="1">
+      <c r="A9" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="15" customHeight="1">
-      <c r="A6" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="7" t="s">
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="15" customHeight="1">
-      <c r="A7" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" s="13"/>
-    </row>
-    <row r="8" spans="1:18" ht="15" customHeight="1">
-      <c r="A8" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" s="13"/>
-    </row>
-    <row r="9" spans="1:18" ht="15" customHeight="1">
-      <c r="A9" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:18" ht="15" customHeight="1">
-      <c r="A10" s="2"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="9"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:18" ht="15" customHeight="1">
+      <c r="A11" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:18" ht="15" customHeight="1">
-      <c r="A11" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22"/>
       <c r="D11" s="7" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1">
-      <c r="A12" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
+      <c r="A12" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
       <c r="D12" s="7" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
@@ -1396,13 +1361,13 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:18" ht="15" customHeight="1">
-      <c r="A13" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
+      <c r="A13" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
       <c r="D13" s="7" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
@@ -1428,7 +1393,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -1444,7 +1409,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
@@ -1460,7 +1425,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -1472,11 +1437,11 @@
       <c r="J17" s="11"/>
     </row>
     <row r="18" spans="1:10" ht="21" customHeight="1">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -1488,9 +1453,9 @@
       <c r="J18" s="10"/>
     </row>
     <row r="19" spans="1:10" ht="21" customHeight="1">
-      <c r="A19" s="17"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="12" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -1502,11 +1467,11 @@
       <c r="J19" s="11"/>
     </row>
     <row r="20" spans="1:10" ht="21" customHeight="1">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="16" t="s">
         <v>10</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -1518,9 +1483,9 @@
       <c r="J20" s="10"/>
     </row>
     <row r="21" spans="1:10" ht="21" customHeight="1">
-      <c r="A21" s="17"/>
+      <c r="A21" s="16"/>
       <c r="B21" s="12" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
@@ -1532,11 +1497,11 @@
       <c r="J21" s="11"/>
     </row>
     <row r="22" spans="1:10" ht="21" customHeight="1">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -1548,9 +1513,9 @@
       <c r="J22" s="10"/>
     </row>
     <row r="23" spans="1:10" ht="21" customHeight="1">
-      <c r="A23" s="17"/>
+      <c r="A23" s="16"/>
       <c r="B23" s="12" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
@@ -1671,28 +1636,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A13:C13"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="F3:H3"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F5:H5"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F6:H6"/>
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="F8:H8"/>
     <mergeCell ref="F9:H9"/>
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A12:C12"/>
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.8" right="0.2" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/JCSGYK/AdminBundle/Resources/public/reports/homehelp_stats.xlsx
+++ b/src/JCSGYK/AdminBundle/Resources/public/reports/homehelp_stats.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="16240" yWindow="700" windowWidth="30280" windowHeight="26860"/>
+    <workbookView xWindow="3780" yWindow="8260" windowWidth="33460" windowHeight="18580"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>[ca.cim][ca.klub]</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Teljes havi létszám</t>
   </si>
   <si>
-    <t>Megszűntek</t>
-  </si>
-  <si>
     <t>Létszám hónap végén</t>
   </si>
   <si>
@@ -57,36 +54,6 @@
     <t>Lakásban tartózkodás jogcíme</t>
   </si>
   <si>
-    <t>[age_headers.val;block=tbs:cell]</t>
-  </si>
-  <si>
-    <t>[age_2.val;block=tbs:cell;ope=tbs:num]</t>
-  </si>
-  <si>
-    <t>[age_1.val;block=tbs:cell;ope=tbs:num]</t>
-  </si>
-  <si>
-    <t>[comfort_headers.val;block=tbs:cell]</t>
-  </si>
-  <si>
-    <t>[comfort.val;block=tbs:cell;ope=tbs:num]</t>
-  </si>
-  <si>
-    <t>[income_headers.val;block=tbs:cell]</t>
-  </si>
-  <si>
-    <t>[income.val;block=tbs:cell;ope=tbs:num]</t>
-  </si>
-  <si>
-    <t>[ownership_headers.val;block=tbs:cell]</t>
-  </si>
-  <si>
-    <t>[ownership.val;block=tbs:cell;ope=tbs:num]</t>
-  </si>
-  <si>
-    <t>Térítési díj bevétel összesen</t>
-  </si>
-  <si>
     <t>Aktív ellátottak száma</t>
   </si>
   <si>
@@ -105,36 +72,15 @@
     <t>Átlag gondozási órák 0.5 fő</t>
   </si>
   <si>
-    <t>[inv.avg05;ope=tbs:num]</t>
-  </si>
-  <si>
     <t>Átlag gondozási órák 1-2 fő</t>
   </si>
   <si>
     <t>Átlag gondozási órák 3-4 fő</t>
   </si>
   <si>
-    <t>[inv.avg34;ope=tbs:num]</t>
-  </si>
-  <si>
-    <t>[inv.avg12;ope=tbs:num]</t>
-  </si>
-  <si>
     <t>Fekvőbetegek száma</t>
   </si>
   <si>
-    <t>[cnum.inpatient;ope=tbs:num]</t>
-  </si>
-  <si>
-    <t>[inv.disc; ope=tbs:num]</t>
-  </si>
-  <si>
-    <t>[inv.pay; ope=tbs:num]</t>
-  </si>
-  <si>
-    <t>[inv.disccli; ope=tbs:num]</t>
-  </si>
-  <si>
     <t>Gondozottak száma NŐ</t>
   </si>
   <si>
@@ -144,43 +90,115 @@
     <t>Újra nyitott</t>
   </si>
   <si>
-    <t xml:space="preserve"> [cnum.start;ope=tbs:num]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [cnum.new;ope=tbs:num]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [cnum.all;ope=tbs:num]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [cnum.reopened;ope=tbs:num]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [cnum.active;ope=tbs:num]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [cnum.archived;ope=tbs:num]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [cnum.end;ope=tbs:num]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [inv.sum]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [cnum.woman;ope=tbs:num]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [cnum.man;ope=tbs:num]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [inv.hours;ope=tbs:num]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [inv.visits; ope=tbs:num]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [inv.paycli; ope=tbs:num]</t>
+    <t>[inv.sum]</t>
+  </si>
+  <si>
+    <t>[cnum.start]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [inv.hours]</t>
+  </si>
+  <si>
+    <t>[cnum.new]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [cnum.all]</t>
+  </si>
+  <si>
+    <t>[cnum.reopened]</t>
+  </si>
+  <si>
+    <t>[cnum.active]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [inv.avg05]</t>
+  </si>
+  <si>
+    <t>[cnum.archived]</t>
+  </si>
+  <si>
+    <t>[inv.avg12]</t>
+  </si>
+  <si>
+    <t>[cnum.end]</t>
+  </si>
+  <si>
+    <t>[inv.avg34]</t>
+  </si>
+  <si>
+    <t>[cnum.inpatient]</t>
+  </si>
+  <si>
+    <t>[cnum.woman]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [cnum.man]</t>
+  </si>
+  <si>
+    <t>[age_headers]</t>
+  </si>
+  <si>
+    <t>[age_2]</t>
+  </si>
+  <si>
+    <t>[age_1]</t>
+  </si>
+  <si>
+    <t>[comfort_headers]</t>
+  </si>
+  <si>
+    <t>[comfort]</t>
+  </si>
+  <si>
+    <t>[income_headers]</t>
+  </si>
+  <si>
+    <t>[income]</t>
+  </si>
+  <si>
+    <t>[ownership_headers]</t>
+  </si>
+  <si>
+    <t>[ownership]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [inv.visits]</t>
+  </si>
+  <si>
+    <t>[inv.disc]</t>
+  </si>
+  <si>
+    <t>[inv.disccli]</t>
+  </si>
+  <si>
+    <t>[inv.pay]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [inv.paycli]</t>
+  </si>
+  <si>
+    <t>Megszűntek (archiváltak)</t>
+  </si>
+  <si>
+    <t>Szünetelők</t>
+  </si>
+  <si>
+    <t>[cnum.paused]</t>
+  </si>
+  <si>
+    <t>Várható térítési díj bevétel összesen</t>
+  </si>
+  <si>
+    <t>Könyvelt térítési díj bevétel összesen</t>
+  </si>
+  <si>
+    <t>Térítési díj elmaradás összesen</t>
+  </si>
+  <si>
+    <t>[inv.acc]</t>
+  </si>
+  <si>
+    <t>[inv.diff]</t>
   </si>
 </sst>
 </file>
@@ -223,7 +241,8 @@
       <name val="Arial CE"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="12"/>
       <name val="Arial CE"/>
     </font>
   </fonts>
@@ -302,7 +321,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="179">
+  <cellStyleXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -482,8 +501,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -495,9 +530,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -507,44 +539,44 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="179">
+  <cellStyles count="195">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -634,6 +666,14 @@
     <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -723,6 +763,14 @@
     <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -795,6 +843,11 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1120,10 +1173,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R32"/>
+  <dimension ref="A1:R35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F10" sqref="F10:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -1136,18 +1189,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
@@ -1159,319 +1212,317 @@
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:18" ht="15" customHeight="1">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="17" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:18" ht="15" customHeight="1">
+      <c r="A4" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15" customHeight="1">
+      <c r="A5" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15" customHeight="1">
+      <c r="A6" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="17"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15" customHeight="1">
+      <c r="A7" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="13"/>
+    </row>
+    <row r="8" spans="1:18" ht="15" customHeight="1">
+      <c r="A8" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="13"/>
+    </row>
+    <row r="9" spans="1:18" ht="15" customHeight="1">
+      <c r="A9" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="17"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="13"/>
+    </row>
+    <row r="10" spans="1:18" ht="15" customHeight="1">
+      <c r="A10" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:18" ht="15" customHeight="1">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="7"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:18" ht="15" customHeight="1">
+      <c r="A12" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="1:18" ht="15" customHeight="1">
-      <c r="A4" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="15" customHeight="1">
-      <c r="A5" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="15" customHeight="1">
-      <c r="A6" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="15" customHeight="1">
-      <c r="A7" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="13"/>
-    </row>
-    <row r="8" spans="1:18" ht="15" customHeight="1">
-      <c r="A8" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" s="13"/>
-    </row>
-    <row r="9" spans="1:18" ht="15" customHeight="1">
-      <c r="A9" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:18" ht="15" customHeight="1">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:18" ht="15" customHeight="1">
-      <c r="A11" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:18" ht="15" customHeight="1">
-      <c r="A12" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:18" ht="15" customHeight="1">
-      <c r="A13" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
+      <c r="A13" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:18" ht="15" customHeight="1">
-      <c r="A14" s="2"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="A14" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:18" ht="30" customHeight="1">
-      <c r="A15" s="14" t="s">
+    <row r="15" spans="1:18" ht="15" customHeight="1">
+      <c r="A15" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:18" ht="15" customHeight="1">
+      <c r="A16" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" ht="15" customHeight="1">
+      <c r="A17" s="2"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" ht="30" customHeight="1">
+      <c r="A18" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+    </row>
+    <row r="19" spans="1:10" ht="21" customHeight="1">
+      <c r="A19" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-    </row>
-    <row r="16" spans="1:18" ht="21" customHeight="1">
-      <c r="A16" s="14" t="s">
+      <c r="B19" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+    </row>
+    <row r="20" spans="1:10" ht="21" customHeight="1">
+      <c r="A20" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-    </row>
-    <row r="17" spans="1:10" ht="21" customHeight="1">
-      <c r="A17" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-    </row>
-    <row r="18" spans="1:10" ht="21" customHeight="1">
-      <c r="A18" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-    </row>
-    <row r="19" spans="1:10" ht="21" customHeight="1">
-      <c r="A19" s="16"/>
-      <c r="B19" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-    </row>
-    <row r="20" spans="1:10" ht="21" customHeight="1">
-      <c r="A20" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>17</v>
+      <c r="B20" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -1483,181 +1534,230 @@
       <c r="J20" s="10"/>
     </row>
     <row r="21" spans="1:10" ht="21" customHeight="1">
-      <c r="A21" s="16"/>
-      <c r="B21" s="12" t="s">
-        <v>18</v>
+      <c r="A21" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
     </row>
     <row r="22" spans="1:10" ht="21" customHeight="1">
-      <c r="A22" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>19</v>
+      <c r="A22" s="21"/>
+      <c r="B22" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
     </row>
     <row r="23" spans="1:10" ht="21" customHeight="1">
-      <c r="A23" s="16"/>
-      <c r="B23" s="12" t="s">
-        <v>20</v>
+      <c r="A23" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-    </row>
-    <row r="24" spans="1:10" ht="15" customHeight="1">
-      <c r="A24" s="2"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="1:10" ht="15" customHeight="1">
-      <c r="A25" s="2"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="1:10" ht="15" customHeight="1">
-      <c r="A26" s="2"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+    </row>
+    <row r="24" spans="1:10" ht="21" customHeight="1">
+      <c r="A24" s="21"/>
+      <c r="B24" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+    </row>
+    <row r="25" spans="1:10" ht="21" customHeight="1">
+      <c r="A25" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+    </row>
+    <row r="26" spans="1:10" ht="21" customHeight="1">
+      <c r="A26" s="21"/>
+      <c r="B26" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
     </row>
     <row r="27" spans="1:10" ht="15" customHeight="1">
       <c r="A27" s="2"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" ht="15" customHeight="1">
       <c r="A28" s="2"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10" ht="15" customHeight="1">
       <c r="A29" s="2"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1">
       <c r="A30" s="2"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="1:10" ht="15" customHeight="1">
       <c r="A31" s="2"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="1:10" ht="15" customHeight="1">
       <c r="A32" s="2"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
+    <row r="33" spans="1:10" ht="15" customHeight="1">
+      <c r="A33" s="2"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="1:10" ht="15" customHeight="1">
+      <c r="A34" s="2"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="1:10" ht="15" customHeight="1">
+      <c r="A35" s="2"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="25">
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
     <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F8:H8"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A16:C16"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.8" right="0.2" top="1" bottom="1" header="0.5" footer="0.5"/>
